--- a/ac_case25_example.xlsx
+++ b/ac_case25_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leejunwoo\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FD9BE-3328-49DC-B837-A1CDE56DC36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACE8D7-60F4-46F8-BF99-8406B12B6FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="1730" windowWidth="12490" windowHeight="14810" xr2:uid="{6DD3CE53-9145-425E-AD0F-E351B35AEBFF}"/>
+    <workbookView xWindow="12900" yWindow="2900" windowWidth="12490" windowHeight="14810" activeTab="1" xr2:uid="{6DD3CE53-9145-425E-AD0F-E351B35AEBFF}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Bus</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Qgmin (pu)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL (pu)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1119,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C989B-D010-4EC4-85BB-5172E5FBF663}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1130,7 +1134,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1153,13 +1157,16 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1175,8 +1182,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1213,13 +1223,16 @@
         <v>0.8</v>
       </c>
       <c r="H4">
+        <v>0.4</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1239,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1267,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162972C-3BC7-42C2-A92E-33E08AEF95D5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1344,6 +1357,40 @@
       </c>
       <c r="E4">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
